--- a/data/listados/Lejano/L_L_Usaragá.xlsx
+++ b/data/listados/Lejano/L_L_Usaragá.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5420f79c2d515b70/All/PacificoTaskForce/ptfr/data/listados/Lejano/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{38E43C4F-E539-4D53-ACEE-FE2FA8819043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B753E20-A419-45DC-B2F8-C46AF3C94BDF}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{38E43C4F-E539-4D53-ACEE-FE2FA8819043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C308EDC-DDD9-4FB7-8F0E-690780926D71}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{C493801B-0034-4160-9F1F-7E599C548A81}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{C493801B-0034-4160-9F1F-7E599C548A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$L$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$M$34</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -205,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +230,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -243,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -277,11 +283,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -292,6 +310,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -614,7 +636,7 @@
   <dimension ref="B3:M35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,7 +832,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
+      <c r="B12" s="13">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -870,7 +892,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
+      <c r="B14" s="13">
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -930,7 +952,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
+      <c r="B16" s="13">
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1020,7 +1042,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="4">
+      <c r="B19" s="13">
         <v>15</v>
       </c>
       <c r="C19" t="s">
@@ -1050,7 +1072,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
+      <c r="B20" s="13">
         <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1080,7 +1102,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="4">
+      <c r="B21" s="13">
         <v>17</v>
       </c>
       <c r="C21" t="s">
@@ -1140,7 +1162,7 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="4">
+      <c r="B23" s="13">
         <v>19</v>
       </c>
       <c r="C23" t="s">
@@ -1200,7 +1222,7 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="4">
+      <c r="B25" s="13">
         <v>21</v>
       </c>
       <c r="C25" t="s">
@@ -1498,13 +1520,6 @@
       <c r="G35" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:L35" xr:uid="{A473B590-D079-40F0-844A-321C52FDD7E4}">
-    <filterColumn colId="0" showButton="0"/>
-    <filterColumn colId="1" showButton="0"/>
-    <filterColumn colId="2" showButton="0"/>
-    <filterColumn colId="3" showButton="0"/>
-    <filterColumn colId="4" showButton="0"/>
-  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B3:G3"/>
   </mergeCells>
